--- a/s切断資料自動化/AC12257B.xlsx
+++ b/s切断資料自動化/AC12257B.xlsx
@@ -1,29 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dwhnas1\DWH1\u_ueno\c_cuttingdata_auto\s切断資料自動化\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Dwhnas1\dwh1\u_ueno\c_cuttingdata_auto\s切断資料自動化\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56B940A-1157-4CAF-AD3C-E7D8FBDC99DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716E1550-9635-46BC-A5B5-15A84CF7D232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2377" yWindow="1433" windowWidth="14041" windowHeight="8692" tabRatio="803" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AC12257B" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">AC12257B!$A$1:$O$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>泉州</t>
   </si>
@@ -230,6 +244,10 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -754,31 +772,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="D5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D4" sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="21" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="21" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="22" customWidth="1"/>
-    <col min="9" max="10" width="11.125" style="22" customWidth="1"/>
-    <col min="11" max="11" width="8.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.73046875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" style="21" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="8.86328125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="21" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" style="22" customWidth="1"/>
+    <col min="9" max="10" width="11.1328125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="8.3984375" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="21" customWidth="1"/>
-    <col min="13" max="13" width="5.5" style="21" customWidth="1"/>
+    <col min="13" max="13" width="5.46484375" style="21" customWidth="1"/>
     <col min="14" max="14" width="9" style="21" customWidth="1"/>
-    <col min="15" max="15" width="13.125" style="21" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" style="21" customWidth="1"/>
     <col min="16" max="102" width="9" style="21" customWidth="1"/>
     <col min="103" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
@@ -790,7 +808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="20" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="20" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="D2" s="23"/>
       <c r="J2" s="5"/>
@@ -804,7 +822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="20" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="20" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="D3" s="23"/>
       <c r="J3" s="5"/>
@@ -818,7 +836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="20" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="20" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="18" t="s">
         <v>5</v>
@@ -836,7 +854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -881,7 +899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>21</v>
       </c>
@@ -933,7 +951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>29</v>
       </c>
@@ -985,7 +1003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>36</v>
       </c>
@@ -1037,7 +1055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>42</v>
       </c>
@@ -1089,7 +1107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>47</v>
       </c>
@@ -1138,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>29</v>
       </c>
@@ -1190,7 +1208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>53</v>
       </c>
@@ -1242,7 +1260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>60</v>
       </c>
@@ -1291,7 +1309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>64</v>
       </c>
@@ -1348,4 +1366,25 @@
     <oddHeader>&amp;R&amp;D</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8D3D56-5FA7-4341-8425-CF45B78C4766}">
+  <dimension ref="B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>